--- a/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
+++ b/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>16800</v>
+        <v>16450</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -873,9 +873,15 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="3">
+        <v>45324</v>
+      </c>
+      <c r="C3" s="4">
+        <v>350</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="1">
         <v>31</v>
       </c>

--- a/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
+++ b/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>16450</v>
+        <v>16100</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -905,9 +905,15 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="3">
+        <v>45331</v>
+      </c>
+      <c r="C4" s="4">
+        <v>350</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="1">
         <v>32</v>
       </c>

--- a/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
+++ b/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>16100</v>
+        <v>15750</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -937,9 +937,15 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="3">
+        <v>45338</v>
+      </c>
+      <c r="C5" s="4">
+        <v>350</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="1">
         <v>33</v>
       </c>

--- a/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
+++ b/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>15750</v>
+        <v>15400</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -969,9 +969,15 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="3">
+        <v>45345</v>
+      </c>
+      <c r="C6" s="4">
+        <v>350</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="1">
         <v>34</v>
       </c>

--- a/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
+++ b/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>1400</v>
+        <v>1750</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>15400</v>
+        <v>15050</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1001,9 +1001,15 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="3">
+        <v>45352</v>
+      </c>
+      <c r="C7" s="4">
+        <v>350</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1">
         <v>35</v>
       </c>

--- a/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
+++ b/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>1750</v>
+        <v>2100</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>15050</v>
+        <v>14700</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1033,9 +1033,15 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="3">
+        <v>45359</v>
+      </c>
+      <c r="C8" s="4">
+        <v>350</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1">
         <v>36</v>
       </c>

--- a/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
+++ b/LoanOfficer-A/2023/19 Priya Moirangthem Narmada.xlsx
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1065,9 +1065,15 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="3">
+        <v>45366</v>
+      </c>
+      <c r="C9" s="4">
+        <v>350</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1">
         <v>37</v>
       </c>
@@ -1091,9 +1097,15 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="3">
+        <v>45373</v>
+      </c>
+      <c r="C10" s="4">
+        <v>350</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1">
         <v>38</v>
       </c>
